--- a/CLIMEX/Final_outfls/Analysis/Sumstats_country_EI_GI.xlsx
+++ b/CLIMEX/Final_outfls/Analysis/Sumstats_country_EI_GI.xlsx
@@ -507,22 +507,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
         <v>20</v>
       </c>
       <c r="D4" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" t="n">
         <v>20</v>
       </c>
       <c r="G4" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">

--- a/CLIMEX/Final_outfls/Analysis/Sumstats_country_EI_GI.xlsx
+++ b/CLIMEX/Final_outfls/Analysis/Sumstats_country_EI_GI.xlsx
@@ -530,7 +530,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
         <v>13</v>
@@ -539,7 +539,7 @@
         <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" t="n">
         <v>13</v>
@@ -599,19 +599,19 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C8" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
         <v>44</v>
       </c>
       <c r="E8" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>44</v>
@@ -645,22 +645,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" t="n">
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -875,7 +875,7 @@
         <v>25</v>
       </c>
       <c r="B20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" t="n">
         <v>10</v>
@@ -884,7 +884,7 @@
         <v>22</v>
       </c>
       <c r="E20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F20" t="n">
         <v>10</v>

--- a/CLIMEX/Final_outfls/Analysis/Sumstats_country_EI_GI.xlsx
+++ b/CLIMEX/Final_outfls/Analysis/Sumstats_country_EI_GI.xlsx
@@ -530,7 +530,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
         <v>13</v>
@@ -539,7 +539,7 @@
         <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F5" t="n">
         <v>13</v>
@@ -599,19 +599,19 @@
         <v>13</v>
       </c>
       <c r="B8" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D8" t="n">
         <v>44</v>
       </c>
       <c r="E8" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G8" t="n">
         <v>44</v>
@@ -645,22 +645,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F10" t="n">
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -875,7 +875,7 @@
         <v>25</v>
       </c>
       <c r="B20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" t="n">
         <v>10</v>
@@ -884,7 +884,7 @@
         <v>22</v>
       </c>
       <c r="E20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F20" t="n">
         <v>10</v>
